--- a/24.xlsx
+++ b/24.xlsx
@@ -2754,7 +2754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2765,6 +2765,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2801,13 +2807,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3167,7 +3173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3225,20 +3231,20 @@
         <v>518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>18</v>
       </c>
       <c r="F4" s="4">
@@ -3254,7 +3260,7 @@
         <v>527</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>591</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3399,14 +3405,14 @@
         <v>589</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3428,7 +3434,7 @@
         <v>431</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,11 +3463,11 @@
         <v>330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3486,11 +3492,11 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3515,14 +3521,14 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3544,7 +3550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -3554,10 +3560,10 @@
       <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>23</v>
       </c>
       <c r="F15" s="4">
@@ -3573,14 +3579,14 @@
         <v>232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3602,14 +3608,14 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3635,10 +3641,10 @@
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3751,13 +3757,13 @@
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4070,7 +4076,7 @@
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4102,7 +4108,7 @@
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -4166,7 +4172,7 @@
       <c r="D36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>23</v>
       </c>
       <c r="F36" s="4">
@@ -4186,7 +4192,7 @@
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4224,7 +4230,7 @@
       <c r="D38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>25</v>
       </c>
       <c r="F38" s="4">
@@ -4244,7 +4250,7 @@
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4273,10 +4279,10 @@
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4389,7 +4395,7 @@
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4453,7 +4459,7 @@
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4482,10 +4488,10 @@
       <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>6</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>20</v>
       </c>
       <c r="F47" s="4">
@@ -4534,7 +4540,7 @@
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4621,13 +4627,13 @@
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>7</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -4682,7 +4688,7 @@
       <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -4769,7 +4775,7 @@
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4795,7 +4801,7 @@
       <c r="A58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -4862,7 +4868,7 @@
       <c r="D60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>17</v>
       </c>
       <c r="F60" s="4">
@@ -4885,7 +4891,7 @@
       <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4978,7 +4984,7 @@
       <c r="D64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>18</v>
       </c>
       <c r="F64" s="4">
@@ -4998,7 +5004,7 @@
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -5033,7 +5039,7 @@
       <c r="C66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -5117,7 +5123,7 @@
       <c r="B69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -5143,7 +5149,7 @@
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -5175,10 +5181,10 @@
       <c r="B71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>4</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5201,10 +5207,10 @@
       <c r="A72" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>6</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -5262,7 +5268,7 @@
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -5326,7 +5332,7 @@
       <c r="D76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>24</v>
       </c>
       <c r="F76" s="4">
@@ -5346,10 +5352,10 @@
       <c r="A77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>7</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -5494,7 +5500,7 @@
       <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -5520,7 +5526,7 @@
       <c r="A83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -5581,7 +5587,7 @@
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -5665,7 +5671,7 @@
       <c r="A88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -5723,10 +5729,10 @@
       <c r="A90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>8</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -5897,7 +5903,7 @@
       <c r="A96" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -5906,7 +5912,7 @@
       <c r="D96" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>19</v>
       </c>
       <c r="F96" s="4">
@@ -5926,10 +5932,10 @@
       <c r="A97" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>6</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5955,7 +5961,7 @@
       <c r="A98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -5964,7 +5970,7 @@
       <c r="D98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>20</v>
       </c>
       <c r="F98" s="4">
@@ -6013,10 +6019,10 @@
       <c r="A100" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>6</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -6071,7 +6077,7 @@
       <c r="A102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -6100,7 +6106,7 @@
       <c r="A103" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -6129,7 +6135,7 @@
       <c r="A104" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -6187,10 +6193,10 @@
       <c r="A106" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>7</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -6216,7 +6222,7 @@
       <c r="A107" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -6245,13 +6251,13 @@
       <c r="A108" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>5</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -6277,7 +6283,7 @@
       <c r="B109" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -6335,7 +6341,7 @@
       <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -6370,7 +6376,7 @@
       <c r="D112" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>17</v>
       </c>
       <c r="F112" s="4">
@@ -6390,7 +6396,7 @@
       <c r="A113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -6509,7 +6515,7 @@
       <c r="B117" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="3">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -6625,7 +6631,7 @@
       <c r="B121" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="3">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -6683,7 +6689,7 @@
       <c r="B123" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="3">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -6741,7 +6747,7 @@
       <c r="B125" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="3">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -6767,16 +6773,16 @@
       <c r="A126" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>5</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="3">
         <v>5</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>5</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="3">
         <v>15</v>
       </c>
       <c r="F126" s="4">
@@ -6796,13 +6802,13 @@
       <c r="A127" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -6883,13 +6889,13 @@
       <c r="A130" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>5</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -6912,7 +6918,7 @@
       <c r="A131" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -6944,7 +6950,7 @@
       <c r="B132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="3">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -7005,7 +7011,7 @@
       <c r="C134" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>9</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -7028,10 +7034,10 @@
       <c r="A135" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>6</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="3">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -7086,10 +7092,10 @@
       <c r="A137" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>7</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="3">
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -7115,10 +7121,10 @@
       <c r="A138" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>8</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="3">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -7147,7 +7153,7 @@
       <c r="B139" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="3">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -7173,13 +7179,13 @@
       <c r="A140" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>6</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -7234,13 +7240,13 @@
       <c r="B142" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="3">
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>19</v>
       </c>
       <c r="F142" s="4">
@@ -7263,7 +7269,7 @@
       <c r="B143" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="3">
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -7324,10 +7330,10 @@
       <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="3">
         <v>4</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>18</v>
       </c>
       <c r="F145" s="4">
@@ -7466,7 +7472,7 @@
       <c r="B150" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="3">
         <v>10</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -7492,7 +7498,7 @@
       <c r="A151" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -7524,7 +7530,7 @@
       <c r="B152" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="3">
         <v>10</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -7556,7 +7562,7 @@
       <c r="C153" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="3">
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -7608,7 +7614,7 @@
       <c r="A155" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -7637,13 +7643,13 @@
       <c r="A156" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="3">
         <v>4</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -7669,7 +7675,7 @@
       <c r="B157" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="3">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -7701,10 +7707,10 @@
       <c r="C158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <v>4</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="3">
         <v>18</v>
       </c>
       <c r="F158" s="4">
@@ -7753,7 +7759,7 @@
       <c r="A160" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>6</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -7811,13 +7817,13 @@
       <c r="A162" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>8</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -7840,7 +7846,7 @@
       <c r="A163" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -7849,7 +7855,7 @@
       <c r="D163" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="3">
         <v>20</v>
       </c>
       <c r="F163" s="4">
@@ -7869,7 +7875,7 @@
       <c r="A164" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>7</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -7898,7 +7904,7 @@
       <c r="A165" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -7927,7 +7933,7 @@
       <c r="A166" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>7</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -8046,7 +8052,7 @@
       <c r="B170" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="3">
         <v>10</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -8075,7 +8081,7 @@
       <c r="B171" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="3">
         <v>10</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -8104,7 +8110,7 @@
       <c r="B172" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="3">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -8130,13 +8136,13 @@
       <c r="A173" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>6</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="3">
         <v>4</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -8159,7 +8165,7 @@
       <c r="A174" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>6</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -8188,13 +8194,13 @@
       <c r="A175" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>5</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="3">
         <v>5</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -8249,7 +8255,7 @@
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="3">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -8275,7 +8281,7 @@
       <c r="A178" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -8307,7 +8313,7 @@
       <c r="B179" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="3">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -8362,7 +8368,7 @@
       <c r="A181" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="3">
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -8484,10 +8490,10 @@
       <c r="C185" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="3">
         <v>8</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="3">
         <v>24</v>
       </c>
       <c r="F185" s="4">
@@ -8536,7 +8542,7 @@
       <c r="A187" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>6</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -8574,7 +8580,7 @@
       <c r="D188" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="3">
         <v>24</v>
       </c>
       <c r="F188" s="4">
@@ -8594,7 +8600,7 @@
       <c r="A189" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>8</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -8623,7 +8629,7 @@
       <c r="A190" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -8652,7 +8658,7 @@
       <c r="A191" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>7</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -8684,7 +8690,7 @@
       <c r="B192" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="3">
         <v>7</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -8713,7 +8719,7 @@
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="3">
         <v>6</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -8742,7 +8748,7 @@
       <c r="B194" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="3">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -8826,7 +8832,7 @@
       <c r="A197" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>7</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -8916,7 +8922,7 @@
       <c r="B200" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="3">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -8977,10 +8983,10 @@
       <c r="C202" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="3">
         <v>4</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="3">
         <v>19</v>
       </c>
       <c r="F202" s="4">
@@ -9000,13 +9006,13 @@
       <c r="A203" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>6</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="3">
         <v>6</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -9029,7 +9035,7 @@
       <c r="A204" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="3">
         <v>7</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -9145,7 +9151,7 @@
       <c r="A208" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="3">
         <v>6</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -9177,7 +9183,7 @@
       <c r="B209" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="3">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -9264,7 +9270,7 @@
       <c r="B212" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="3">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -9290,16 +9296,16 @@
       <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="3">
         <v>6</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="3">
         <v>7</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="3">
         <v>4</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="3">
         <v>17</v>
       </c>
       <c r="F213" s="4">
@@ -9322,7 +9328,7 @@
       <c r="B214" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="3">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -9348,10 +9354,10 @@
       <c r="A215" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="3">
         <v>7</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="3">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -9406,7 +9412,7 @@
       <c r="A217" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="3">
         <v>5</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -9438,7 +9444,7 @@
       <c r="B218" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="3">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -9470,7 +9476,7 @@
       <c r="C219" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="3">
         <v>7</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -9493,7 +9499,7 @@
       <c r="A220" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="3">
         <v>7</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -9522,7 +9528,7 @@
       <c r="A221" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="3">
         <v>5</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -9554,7 +9560,7 @@
       <c r="B222" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="3">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -9725,10 +9731,10 @@
       <c r="A228" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="3">
         <v>7</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="3">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -9757,7 +9763,7 @@
       <c r="B229" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="3">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -9844,7 +9850,7 @@
       <c r="B232" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="3">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -9899,7 +9905,7 @@
       <c r="A234" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="3">
         <v>6</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -9928,7 +9934,7 @@
       <c r="A235" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="3">
         <v>5</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -9937,7 +9943,7 @@
       <c r="D235" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="3">
         <v>20</v>
       </c>
       <c r="F235" s="4">
@@ -9960,13 +9966,13 @@
       <c r="B236" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="3">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="3">
         <v>20</v>
       </c>
       <c r="F236" s="4">
@@ -9986,7 +9992,7 @@
       <c r="A237" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="3">
         <v>6</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -10044,7 +10050,7 @@
       <c r="A239" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="3">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -10102,7 +10108,7 @@
       <c r="A241" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="3">
         <v>8</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -10137,10 +10143,10 @@
       <c r="C242" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="3">
         <v>5</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="3">
         <v>18</v>
       </c>
       <c r="F242" s="4">
@@ -10160,7 +10166,7 @@
       <c r="A243" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="3">
         <v>7</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -10218,10 +10224,10 @@
       <c r="A245" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="3">
         <v>8</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="3">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -10363,7 +10369,7 @@
       <c r="A250" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="3">
         <v>5</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -10372,7 +10378,7 @@
       <c r="D250" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="3">
         <v>17</v>
       </c>
       <c r="F250" s="4">
@@ -10424,7 +10430,7 @@
       <c r="B252" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="3">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -10450,10 +10456,10 @@
       <c r="A253" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="3">
         <v>6</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="3">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -10482,10 +10488,10 @@
       <c r="B254" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="3">
         <v>6</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="3">
         <v>3</v>
       </c>
       <c r="E254" s="2" t="s">
@@ -10508,7 +10514,7 @@
       <c r="A255" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="3">
         <v>7</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -10540,7 +10546,7 @@
       <c r="B256" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="3">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -10598,7 +10604,7 @@
       <c r="B258" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="3">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -10711,7 +10717,7 @@
       <c r="A262" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="3">
         <v>6</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -10740,10 +10746,10 @@
       <c r="A263" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="3">
         <v>8</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="3">
         <v>10</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -10827,10 +10833,10 @@
       <c r="A266" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="3">
         <v>7</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="3">
         <v>10</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -10859,7 +10865,7 @@
       <c r="B267" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="3">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -10885,7 +10891,7 @@
       <c r="A268" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="3">
         <v>4</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -10914,7 +10920,7 @@
       <c r="A269" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="3">
         <v>7</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -10975,10 +10981,10 @@
       <c r="B271" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="3">
         <v>8</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="3">
         <v>6</v>
       </c>
       <c r="E271" s="2" t="s">
@@ -11004,10 +11010,10 @@
       <c r="B272" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="3">
         <v>10</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="3">
         <v>8</v>
       </c>
       <c r="E272" s="2" t="s">
@@ -11059,7 +11065,7 @@
       <c r="A274" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="3">
         <v>7</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -11094,7 +11100,7 @@
       <c r="C275" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="3">
         <v>4</v>
       </c>
       <c r="E275" s="2" t="s">
@@ -11117,10 +11123,10 @@
       <c r="A276" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="3">
         <v>6</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="3">
         <v>7</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -11265,7 +11271,7 @@
       <c r="B281" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="3">
         <v>10</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -11294,7 +11300,7 @@
       <c r="B282" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="3">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -11320,7 +11326,7 @@
       <c r="A283" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="3">
         <v>8</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -11407,10 +11413,10 @@
       <c r="A286" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="3">
         <v>7</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="3">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -11439,7 +11445,7 @@
       <c r="B287" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="3">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -11468,7 +11474,7 @@
       <c r="B288" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="3">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -11503,7 +11509,7 @@
       <c r="D289" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="3">
         <v>21</v>
       </c>
       <c r="F289" s="4">
@@ -11558,7 +11564,7 @@
       <c r="C291" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="3">
         <v>10</v>
       </c>
       <c r="E291" s="2" t="s">
@@ -11639,7 +11645,7 @@
       <c r="A294" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="3">
         <v>7</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -11703,7 +11709,7 @@
       <c r="C296" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="3">
         <v>6</v>
       </c>
       <c r="E296" s="2" t="s">
@@ -11784,10 +11790,10 @@
       <c r="A299" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="3">
         <v>8</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="3">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -11813,13 +11819,13 @@
       <c r="A300" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="3">
         <v>7</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="3">
         <v>8</v>
       </c>
       <c r="E300" s="2" t="s">
@@ -11903,7 +11909,7 @@
       <c r="B303" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="3">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -11929,7 +11935,7 @@
       <c r="A304" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="3">
         <v>7</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -11987,10 +11993,10 @@
       <c r="A306" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="3">
         <v>6</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="3">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -12103,7 +12109,7 @@
       <c r="A310" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="3">
         <v>6</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -12167,10 +12173,10 @@
       <c r="C312" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="3">
         <v>6</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312" s="3">
         <v>22</v>
       </c>
       <c r="F312" s="4">
@@ -12219,7 +12225,7 @@
       <c r="A314" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="3">
         <v>5</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -12335,7 +12341,7 @@
       <c r="A318" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="3">
         <v>7</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -12367,7 +12373,7 @@
       <c r="B319" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="3">
         <v>7</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -12570,10 +12576,10 @@
       <c r="B326" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="3">
         <v>10</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="3">
         <v>7</v>
       </c>
       <c r="E326" s="2" t="s">
@@ -12683,7 +12689,7 @@
       <c r="A330" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="3">
         <v>6</v>
       </c>
       <c r="C330" s="2" t="s">
@@ -12770,7 +12776,7 @@
       <c r="A333" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="3">
         <v>5</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -12828,7 +12834,7 @@
       <c r="A335" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="3">
         <v>5</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -12857,7 +12863,7 @@
       <c r="A336" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="3">
         <v>1</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -12886,13 +12892,13 @@
       <c r="A337" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="3">
         <v>7</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="3">
         <v>9</v>
       </c>
       <c r="E337" s="2" t="s">
@@ -12918,10 +12924,10 @@
       <c r="B338" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C338" s="2">
+      <c r="C338" s="3">
         <v>9</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="3">
         <v>9</v>
       </c>
       <c r="E338" s="2" t="s">
@@ -12973,10 +12979,10 @@
       <c r="A340" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="3">
         <v>6</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C340" s="3">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
@@ -13002,10 +13008,10 @@
       <c r="A341" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="3">
         <v>7</v>
       </c>
-      <c r="C341" s="2">
+      <c r="C341" s="3">
         <v>7</v>
       </c>
       <c r="D341" s="2" t="s">
@@ -13060,7 +13066,7 @@
       <c r="A343" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="3">
         <v>7</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -13089,7 +13095,7 @@
       <c r="A344" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="3">
         <v>7</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -13121,7 +13127,7 @@
       <c r="B345" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C345" s="3">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
@@ -13147,7 +13153,7 @@
       <c r="A346" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="3">
         <v>7</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -13205,7 +13211,7 @@
       <c r="A348" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="3">
         <v>6</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -13266,7 +13272,7 @@
       <c r="B350" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C350" s="2">
+      <c r="C350" s="3">
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
@@ -13292,10 +13298,10 @@
       <c r="A351" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="3">
         <v>7</v>
       </c>
-      <c r="C351" s="2">
+      <c r="C351" s="3">
         <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
@@ -13321,10 +13327,10 @@
       <c r="A352" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="3">
         <v>7</v>
       </c>
-      <c r="C352" s="2">
+      <c r="C352" s="3">
         <v>7</v>
       </c>
       <c r="D352" s="2" t="s">
@@ -13411,10 +13417,10 @@
       <c r="B355" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C355" s="3">
         <v>9</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="3">
         <v>6</v>
       </c>
       <c r="E355" s="2" t="s">
@@ -13466,7 +13472,7 @@
       <c r="A357" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="3">
         <v>6</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -13504,7 +13510,7 @@
       <c r="D358" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358" s="3">
         <v>25</v>
       </c>
       <c r="F358" s="4">
@@ -13556,7 +13562,7 @@
       <c r="B360" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360" s="3">
         <v>7</v>
       </c>
       <c r="D360" s="2" t="s">
@@ -13582,10 +13588,10 @@
       <c r="A361" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="3">
         <v>7</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361" s="3">
         <v>7</v>
       </c>
       <c r="D361" s="2" t="s">
@@ -13649,7 +13655,7 @@
       <c r="D363" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="3">
         <v>21</v>
       </c>
       <c r="F363" s="4">
@@ -13678,7 +13684,7 @@
       <c r="D364" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E364" s="2">
+      <c r="E364" s="3">
         <v>17</v>
       </c>
       <c r="F364" s="4">
@@ -13701,13 +13707,13 @@
       <c r="B365" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365" s="3">
         <v>7</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="3">
         <v>19</v>
       </c>
       <c r="F365" s="4">
@@ -13727,7 +13733,7 @@
       <c r="A366" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366" s="3">
         <v>6</v>
       </c>
       <c r="C366" s="2" t="s">
@@ -13756,7 +13762,7 @@
       <c r="A367" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367" s="3">
         <v>7</v>
       </c>
       <c r="C367" s="2" t="s">
@@ -13788,7 +13794,7 @@
       <c r="B368" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368" s="3">
         <v>10</v>
       </c>
       <c r="D368" s="2" t="s">
@@ -13820,7 +13826,7 @@
       <c r="C369" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="3">
         <v>9</v>
       </c>
       <c r="E369" s="2" t="s">
@@ -13849,10 +13855,10 @@
       <c r="C370" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="3">
         <v>6</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370" s="3">
         <v>21</v>
       </c>
       <c r="F370" s="4">
@@ -13933,7 +13939,7 @@
       <c r="B373" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373" s="3">
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
@@ -13962,7 +13968,7 @@
       <c r="B374" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374" s="3">
         <v>10</v>
       </c>
       <c r="D374" s="2" t="s">
@@ -14078,7 +14084,7 @@
       <c r="B378" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378" s="3">
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
@@ -14133,10 +14139,10 @@
       <c r="A380" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="3">
         <v>7</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380" s="3">
         <v>8</v>
       </c>
       <c r="D380" s="2" t="s">
@@ -14162,13 +14168,13 @@
       <c r="A381" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="3">
         <v>7</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="3">
         <v>6</v>
       </c>
       <c r="E381" s="2" t="s">
@@ -14191,10 +14197,10 @@
       <c r="A382" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="3">
         <v>8</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382" s="3">
         <v>8</v>
       </c>
       <c r="D382" s="2" t="s">
@@ -14223,7 +14229,7 @@
       <c r="B383" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383" s="3">
         <v>8</v>
       </c>
       <c r="D383" s="2" t="s">
@@ -14249,10 +14255,10 @@
       <c r="A384" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384" s="3">
         <v>6</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384" s="3">
         <v>6</v>
       </c>
       <c r="D384" s="2" t="s">
@@ -14278,7 +14284,7 @@
       <c r="A385" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385" s="3">
         <v>7</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -14307,7 +14313,7 @@
       <c r="A386" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="3">
         <v>7</v>
       </c>
       <c r="C386" s="2" t="s">
@@ -14339,7 +14345,7 @@
       <c r="B387" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387" s="3">
         <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
@@ -14365,7 +14371,7 @@
       <c r="A388" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="3">
         <v>7</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -14374,7 +14380,7 @@
       <c r="D388" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E388" s="3">
         <v>21</v>
       </c>
       <c r="F388" s="4">
@@ -14426,7 +14432,7 @@
       <c r="B390" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390" s="3">
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -14597,7 +14603,7 @@
       <c r="A396" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396" s="3">
         <v>7</v>
       </c>
       <c r="C396" s="2" t="s">
@@ -14664,7 +14670,7 @@
       <c r="D398" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E398" s="2">
+      <c r="E398" s="3">
         <v>25</v>
       </c>
       <c r="F398" s="4">
@@ -14684,7 +14690,7 @@
       <c r="A399" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399" s="3">
         <v>6</v>
       </c>
       <c r="C399" s="2" t="s">
@@ -14719,7 +14725,7 @@
       <c r="C400" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400" s="3">
         <v>3</v>
       </c>
       <c r="E400" s="2" t="s">
@@ -14742,7 +14748,7 @@
       <c r="A401" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401" s="3">
         <v>7</v>
       </c>
       <c r="C401" s="2" t="s">
@@ -14774,7 +14780,7 @@
       <c r="B402" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402" s="3">
         <v>10</v>
       </c>
       <c r="D402" s="2" t="s">
@@ -14800,7 +14806,7 @@
       <c r="A403" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B403" s="3">
         <v>4</v>
       </c>
       <c r="C403" s="2" t="s">
@@ -14809,7 +14815,7 @@
       <c r="D403" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403" s="3">
         <v>18</v>
       </c>
       <c r="F403" s="4">
@@ -14832,7 +14838,7 @@
       <c r="B404" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404" s="3">
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
@@ -14887,7 +14893,7 @@
       <c r="A406" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406" s="3">
         <v>6</v>
       </c>
       <c r="C406" s="2" t="s">
@@ -14945,7 +14951,7 @@
       <c r="A408" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408" s="3">
         <v>7</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -14974,13 +14980,13 @@
       <c r="A409" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409" s="3">
         <v>6</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409" s="3">
         <v>4</v>
       </c>
       <c r="E409" s="2" t="s">
@@ -15012,7 +15018,7 @@
       <c r="D410" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E410" s="2">
+      <c r="E410" s="3">
         <v>18</v>
       </c>
       <c r="F410" s="4">
@@ -15032,7 +15038,7 @@
       <c r="A411" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411" s="3">
         <v>7</v>
       </c>
       <c r="C411" s="2" t="s">
@@ -15067,7 +15073,7 @@
       <c r="C412" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="3">
         <v>3</v>
       </c>
       <c r="E412" s="2" t="s">
@@ -15093,7 +15099,7 @@
       <c r="B413" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C413" s="2">
+      <c r="C413" s="3">
         <v>8</v>
       </c>
       <c r="D413" s="2" t="s">
@@ -15151,7 +15157,7 @@
       <c r="B415" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C415" s="2">
+      <c r="C415" s="3">
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
@@ -15212,10 +15218,10 @@
       <c r="C417" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417" s="3">
         <v>6</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417" s="3">
         <v>22</v>
       </c>
       <c r="F417" s="4">
@@ -15264,7 +15270,7 @@
       <c r="A419" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B419" s="2">
+      <c r="B419" s="3">
         <v>7</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -15273,7 +15279,7 @@
       <c r="D419" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419" s="3">
         <v>22</v>
       </c>
       <c r="F419" s="4">
@@ -15293,10 +15299,10 @@
       <c r="A420" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420" s="3">
         <v>7</v>
       </c>
-      <c r="C420" s="2">
+      <c r="C420" s="3">
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
@@ -15728,7 +15734,7 @@
       <c r="A435" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B435" s="2">
+      <c r="B435" s="3">
         <v>6</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -15757,10 +15763,10 @@
       <c r="A436" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B436" s="2">
+      <c r="B436" s="3">
         <v>7</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436" s="3">
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
@@ -15786,10 +15792,10 @@
       <c r="A437" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B437" s="2">
+      <c r="B437" s="3">
         <v>7</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437" s="3">
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
@@ -15815,7 +15821,7 @@
       <c r="A438" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B438" s="3">
         <v>8</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -15844,10 +15850,10 @@
       <c r="A439" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B439" s="3">
         <v>6</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="3">
         <v>8</v>
       </c>
       <c r="D439" s="2" t="s">
@@ -15905,7 +15911,7 @@
       <c r="B441" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="3">
         <v>8</v>
       </c>
       <c r="D441" s="2" t="s">
@@ -15937,7 +15943,7 @@
       <c r="C442" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="3">
         <v>4</v>
       </c>
       <c r="E442" s="2" t="s">
@@ -16024,7 +16030,7 @@
       <c r="C445" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="3">
         <v>7</v>
       </c>
       <c r="E445" s="2" t="s">
@@ -16050,7 +16056,7 @@
       <c r="B446" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="3">
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
@@ -16076,7 +16082,7 @@
       <c r="A447" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B447" s="3">
         <v>7</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -16085,7 +16091,7 @@
       <c r="D447" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="3">
         <v>22</v>
       </c>
       <c r="F447" s="4">
@@ -16140,7 +16146,7 @@
       <c r="C449" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="3">
         <v>7</v>
       </c>
       <c r="E449" s="2" t="s">
@@ -16279,7 +16285,7 @@
       <c r="A454" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B454" s="2">
+      <c r="B454" s="3">
         <v>7</v>
       </c>
       <c r="C454" s="2" t="s">
@@ -16372,10 +16378,10 @@
       <c r="C457" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="3">
         <v>4</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="3">
         <v>18</v>
       </c>
       <c r="F457" s="4">
@@ -16395,10 +16401,10 @@
       <c r="A458" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B458" s="2">
+      <c r="B458" s="3">
         <v>4</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="3">
         <v>2</v>
       </c>
       <c r="D458" s="2" t="s">
@@ -16424,10 +16430,10 @@
       <c r="A459" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B459" s="2">
+      <c r="B459" s="3">
         <v>6</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="3">
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
@@ -16453,7 +16459,7 @@
       <c r="A460" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B460" s="2">
+      <c r="B460" s="3">
         <v>6</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -16488,7 +16494,7 @@
       <c r="C461" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="3">
         <v>8</v>
       </c>
       <c r="E461" s="2" t="s">
@@ -16517,10 +16523,10 @@
       <c r="C462" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="3">
         <v>4</v>
       </c>
-      <c r="E462" s="2">
+      <c r="E462" s="3">
         <v>15</v>
       </c>
       <c r="F462" s="4">
@@ -16540,16 +16546,16 @@
       <c r="A463" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B463" s="2">
+      <c r="B463" s="3">
         <v>8</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C463" s="3">
         <v>8</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="3">
         <v>8</v>
       </c>
-      <c r="E463" s="2">
+      <c r="E463" s="3">
         <v>24</v>
       </c>
       <c r="F463" s="4">
@@ -16601,7 +16607,7 @@
       <c r="B465" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="3">
         <v>8</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -16633,7 +16639,7 @@
       <c r="C466" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="3">
         <v>6</v>
       </c>
       <c r="E466" s="2" t="s">
@@ -16714,7 +16720,7 @@
       <c r="A469" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B469" s="2">
+      <c r="B469" s="3">
         <v>7</v>
       </c>
       <c r="C469" s="2" t="s">
@@ -16743,13 +16749,13 @@
       <c r="A470" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B470" s="2">
+      <c r="B470" s="3">
         <v>6</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D470" s="2">
+      <c r="D470" s="3">
         <v>4</v>
       </c>
       <c r="E470" s="2" t="s">
@@ -16862,10 +16868,10 @@
       <c r="B474" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="3">
         <v>9</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="3">
         <v>7</v>
       </c>
       <c r="E474" s="2" t="s">
@@ -16917,7 +16923,7 @@
       <c r="A476" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B476" s="2">
+      <c r="B476" s="3">
         <v>6</v>
       </c>
       <c r="C476" s="2" t="s">
@@ -16949,13 +16955,13 @@
       <c r="B477" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="3">
         <v>10</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E477" s="2">
+      <c r="E477" s="3">
         <v>26</v>
       </c>
       <c r="F477" s="4">
@@ -16978,7 +16984,7 @@
       <c r="B478" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="3">
         <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
@@ -17039,7 +17045,7 @@
       <c r="C480" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480" s="3">
         <v>7</v>
       </c>
       <c r="E480" s="2" t="s">
@@ -17062,7 +17068,7 @@
       <c r="A481" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B481" s="2">
+      <c r="B481" s="3">
         <v>7</v>
       </c>
       <c r="C481" s="2" t="s">
@@ -17094,7 +17100,7 @@
       <c r="B482" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C482" s="2">
+      <c r="C482" s="3">
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
@@ -17152,7 +17158,7 @@
       <c r="B484" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C484" s="2">
+      <c r="C484" s="3">
         <v>10</v>
       </c>
       <c r="D484" s="2" t="s">
@@ -17207,7 +17213,7 @@
       <c r="A486" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B486" s="2">
+      <c r="B486" s="3">
         <v>6</v>
       </c>
       <c r="C486" s="2" t="s">
@@ -17236,10 +17242,10 @@
       <c r="A487" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B487" s="2">
+      <c r="B487" s="3">
         <v>6</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C487" s="3">
         <v>8</v>
       </c>
       <c r="D487" s="2" t="s">
@@ -17294,7 +17300,7 @@
       <c r="A489" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B489" s="2">
+      <c r="B489" s="3">
         <v>6</v>
       </c>
       <c r="C489" s="2" t="s">
@@ -17329,7 +17335,7 @@
       <c r="C490" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490" s="3">
         <v>9</v>
       </c>
       <c r="E490" s="2" t="s">
@@ -17352,7 +17358,7 @@
       <c r="A491" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B491" s="2">
+      <c r="B491" s="3">
         <v>6</v>
       </c>
       <c r="C491" s="2" t="s">
@@ -17381,7 +17387,7 @@
       <c r="A492" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B492" s="2">
+      <c r="B492" s="3">
         <v>7</v>
       </c>
       <c r="C492" s="2" t="s">
@@ -17410,10 +17416,10 @@
       <c r="A493" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B493" s="2">
+      <c r="B493" s="3">
         <v>8</v>
       </c>
-      <c r="C493" s="2">
+      <c r="C493" s="3">
         <v>8</v>
       </c>
       <c r="D493" s="2" t="s">
@@ -17529,7 +17535,7 @@
       <c r="B497" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C497" s="2">
+      <c r="C497" s="3">
         <v>10</v>
       </c>
       <c r="D497" s="2" t="s">
@@ -17587,7 +17593,7 @@
       <c r="B499" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="3">
         <v>7</v>
       </c>
       <c r="D499" s="2" t="s">
@@ -17616,7 +17622,7 @@
       <c r="B500" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="3">
         <v>8</v>
       </c>
       <c r="D500" s="2" t="s">
@@ -17706,7 +17712,7 @@
       <c r="C503" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D503" s="2">
+      <c r="D503" s="3">
         <v>3</v>
       </c>
       <c r="E503" s="2" t="s">
@@ -17738,7 +17744,7 @@
       <c r="D504" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E504" s="2">
+      <c r="E504" s="3">
         <v>25</v>
       </c>
       <c r="F504" s="4">
@@ -17845,7 +17851,7 @@
       <c r="A508" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B508" s="2">
+      <c r="B508" s="3">
         <v>7</v>
       </c>
       <c r="C508" s="2" t="s">
@@ -17854,7 +17860,7 @@
       <c r="D508" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E508" s="2">
+      <c r="E508" s="3">
         <v>21</v>
       </c>
       <c r="F508" s="4">
@@ -18019,10 +18025,10 @@
       <c r="A514" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B514" s="2">
+      <c r="B514" s="3">
         <v>7</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="3">
         <v>7</v>
       </c>
       <c r="D514" s="2" t="s">
@@ -18054,7 +18060,7 @@
       <c r="C515" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D515" s="2">
+      <c r="D515" s="3">
         <v>4</v>
       </c>
       <c r="E515" s="2" t="s">
@@ -18077,7 +18083,7 @@
       <c r="A516" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B516" s="2">
+      <c r="B516" s="3">
         <v>7</v>
       </c>
       <c r="C516" s="2" t="s">
@@ -18086,7 +18092,7 @@
       <c r="D516" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E516" s="2">
+      <c r="E516" s="3">
         <v>22</v>
       </c>
       <c r="F516" s="4">
@@ -18135,7 +18141,7 @@
       <c r="A518" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B518" s="2">
+      <c r="B518" s="3">
         <v>6</v>
       </c>
       <c r="C518" s="2" t="s">
@@ -18144,7 +18150,7 @@
       <c r="D518" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E518" s="2">
+      <c r="E518" s="3">
         <v>20</v>
       </c>
       <c r="F518" s="4">
@@ -18167,13 +18173,13 @@
       <c r="B519" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C519" s="2">
+      <c r="C519" s="3">
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E519" s="2">
+      <c r="E519" s="3">
         <v>22</v>
       </c>
       <c r="F519" s="4">
@@ -18222,7 +18228,7 @@
       <c r="A521" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B521" s="2">
+      <c r="B521" s="3">
         <v>6</v>
       </c>
       <c r="C521" s="2" t="s">
@@ -18251,7 +18257,7 @@
       <c r="A522" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B522" s="2">
+      <c r="B522" s="3">
         <v>8</v>
       </c>
       <c r="C522" s="2" t="s">
@@ -18280,7 +18286,7 @@
       <c r="A523" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B523" s="2">
+      <c r="B523" s="3">
         <v>7</v>
       </c>
       <c r="C523" s="2" t="s">
@@ -18289,7 +18295,7 @@
       <c r="D523" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E523" s="2">
+      <c r="E523" s="3">
         <v>23</v>
       </c>
       <c r="F523" s="4">
@@ -18318,7 +18324,7 @@
       <c r="D524" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E524" s="2">
+      <c r="E524" s="3">
         <v>22</v>
       </c>
       <c r="F524" s="4">
@@ -18425,7 +18431,7 @@
       <c r="A528" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B528" s="2">
+      <c r="B528" s="3">
         <v>7</v>
       </c>
       <c r="C528" s="2" t="s">
@@ -18454,13 +18460,13 @@
       <c r="A529" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B529" s="2">
+      <c r="B529" s="3">
         <v>8</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D529" s="2">
+      <c r="D529" s="3">
         <v>9</v>
       </c>
       <c r="E529" s="2" t="s">
@@ -18515,7 +18521,7 @@
       <c r="B531" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C531" s="2">
+      <c r="C531" s="3">
         <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
@@ -18541,7 +18547,7 @@
       <c r="A532" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B532" s="2">
+      <c r="B532" s="3">
         <v>7</v>
       </c>
       <c r="C532" s="2" t="s">
@@ -18570,7 +18576,7 @@
       <c r="A533" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B533" s="2">
+      <c r="B533" s="3">
         <v>8</v>
       </c>
       <c r="C533" s="2" t="s">
@@ -18599,13 +18605,13 @@
       <c r="A534" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B534" s="2">
+      <c r="B534" s="3">
         <v>7</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D534" s="2">
+      <c r="D534" s="3">
         <v>8</v>
       </c>
       <c r="E534" s="2" t="s">
@@ -18686,7 +18692,7 @@
       <c r="A537" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B537" s="2">
+      <c r="B537" s="3">
         <v>5</v>
       </c>
       <c r="C537" s="2" t="s">
@@ -18715,7 +18721,7 @@
       <c r="A538" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B538" s="2">
+      <c r="B538" s="3">
         <v>7</v>
       </c>
       <c r="C538" s="2" t="s">
@@ -18773,13 +18779,13 @@
       <c r="A540" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B540" s="2">
+      <c r="B540" s="3">
         <v>8</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D540" s="2">
+      <c r="D540" s="3">
         <v>7</v>
       </c>
       <c r="E540" s="2" t="s">
@@ -18860,7 +18866,7 @@
       <c r="A543" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B543" s="2">
+      <c r="B543" s="3">
         <v>7</v>
       </c>
       <c r="C543" s="2" t="s">
@@ -18918,13 +18924,13 @@
       <c r="A545" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B545" s="2">
+      <c r="B545" s="3">
         <v>6</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D545" s="2">
+      <c r="D545" s="3">
         <v>6</v>
       </c>
       <c r="E545" s="2" t="s">
@@ -19005,13 +19011,13 @@
       <c r="A548" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B548" s="2">
+      <c r="B548" s="3">
         <v>7</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D548" s="2">
+      <c r="D548" s="3">
         <v>8</v>
       </c>
       <c r="E548" s="2" t="s">
@@ -19063,7 +19069,7 @@
       <c r="A550" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B550" s="2">
+      <c r="B550" s="3">
         <v>6</v>
       </c>
       <c r="C550" s="2" t="s">
@@ -19124,13 +19130,13 @@
       <c r="B552" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C552" s="2">
+      <c r="C552" s="3">
         <v>7</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E552" s="2">
+      <c r="E552" s="3">
         <v>17</v>
       </c>
       <c r="F552" s="4">
@@ -19153,7 +19159,7 @@
       <c r="B553" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C553" s="2">
+      <c r="C553" s="3">
         <v>8</v>
       </c>
       <c r="D553" s="2" t="s">
@@ -19211,7 +19217,7 @@
       <c r="B555" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C555" s="2">
+      <c r="C555" s="3">
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
@@ -19240,7 +19246,7 @@
       <c r="B556" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C556" s="2">
+      <c r="C556" s="3">
         <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
@@ -19324,7 +19330,7 @@
       <c r="A559" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B559" s="2">
+      <c r="B559" s="3">
         <v>6</v>
       </c>
       <c r="C559" s="2" t="s">
@@ -19382,13 +19388,13 @@
       <c r="A561" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B561" s="2">
+      <c r="B561" s="3">
         <v>6</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D561" s="2">
+      <c r="D561" s="3">
         <v>6</v>
       </c>
       <c r="E561" s="2" t="s">
@@ -19411,7 +19417,7 @@
       <c r="A562" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B562" s="2">
+      <c r="B562" s="3">
         <v>6</v>
       </c>
       <c r="C562" s="2" t="s">
@@ -19469,7 +19475,7 @@
       <c r="A564" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B564" s="2">
+      <c r="B564" s="3">
         <v>6</v>
       </c>
       <c r="C564" s="2" t="s">
@@ -19501,10 +19507,10 @@
       <c r="B565" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C565" s="2">
+      <c r="C565" s="3">
         <v>8</v>
       </c>
-      <c r="D565" s="2">
+      <c r="D565" s="3">
         <v>3</v>
       </c>
       <c r="E565" s="2" t="s">
@@ -19614,7 +19620,7 @@
       <c r="A569" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B569" s="2">
+      <c r="B569" s="3">
         <v>8</v>
       </c>
       <c r="C569" s="2" t="s">
@@ -19730,7 +19736,7 @@
       <c r="A573" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B573" s="2">
+      <c r="B573" s="3">
         <v>7</v>
       </c>
       <c r="C573" s="2" t="s">
@@ -19820,10 +19826,10 @@
       <c r="B576" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C576" s="2">
+      <c r="C576" s="3">
         <v>5</v>
       </c>
-      <c r="D576" s="2">
+      <c r="D576" s="3">
         <v>3</v>
       </c>
       <c r="E576" s="2" t="s">
@@ -19846,7 +19852,7 @@
       <c r="A577" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B577" s="2">
+      <c r="B577" s="3">
         <v>6</v>
       </c>
       <c r="C577" s="2" t="s">
@@ -19933,7 +19939,7 @@
       <c r="A580" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B580" s="2">
+      <c r="B580" s="3">
         <v>6</v>
       </c>
       <c r="C580" s="2" t="s">
@@ -19962,7 +19968,7 @@
       <c r="A581" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B581" s="2">
+      <c r="B581" s="3">
         <v>5</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -19994,7 +20000,7 @@
       <c r="B582" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C582" s="2">
+      <c r="C582" s="3">
         <v>9</v>
       </c>
       <c r="D582" s="2" t="s">
@@ -20107,7 +20113,7 @@
       <c r="A586" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B586" s="2">
+      <c r="B586" s="3">
         <v>7</v>
       </c>
       <c r="C586" s="2" t="s">
@@ -20223,7 +20229,7 @@
       <c r="A590" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B590" s="2">
+      <c r="B590" s="3">
         <v>5</v>
       </c>
       <c r="C590" s="2" t="s">
@@ -20255,7 +20261,7 @@
       <c r="B591" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C591" s="2">
+      <c r="C591" s="3">
         <v>8</v>
       </c>
       <c r="D591" s="2" t="s">
@@ -20368,7 +20374,7 @@
       <c r="A595" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B595" s="2">
+      <c r="B595" s="3">
         <v>6</v>
       </c>
       <c r="C595" s="2" t="s">
@@ -20429,7 +20435,7 @@
       <c r="B597" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C597" s="2">
+      <c r="C597" s="3">
         <v>8</v>
       </c>
       <c r="D597" s="2" t="s">
@@ -20487,7 +20493,7 @@
       <c r="B599" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C599" s="2">
+      <c r="C599" s="3">
         <v>7</v>
       </c>
       <c r="D599" s="2" t="s">
@@ -20571,10 +20577,10 @@
       <c r="A602" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B602" s="2">
+      <c r="B602" s="3">
         <v>6</v>
       </c>
-      <c r="C602" s="2">
+      <c r="C602" s="3">
         <v>8</v>
       </c>
       <c r="D602" s="2" t="s">
@@ -20603,7 +20609,7 @@
       <c r="B603" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C603" s="2">
+      <c r="C603" s="3">
         <v>8</v>
       </c>
       <c r="D603" s="2" t="s">
@@ -20629,7 +20635,7 @@
       <c r="A604" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B604" s="2">
+      <c r="B604" s="3">
         <v>6</v>
       </c>
       <c r="C604" s="2" t="s">
@@ -20638,7 +20644,7 @@
       <c r="D604" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E604" s="2">
+      <c r="E604" s="3">
         <v>15</v>
       </c>
       <c r="F604" s="4">
